--- a/WaterLevelMonitorBillOfMaterials.xlsx
+++ b/WaterLevelMonitorBillOfMaterials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\files\WaterLevelSensor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\files\WaterLevelMonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
   <si>
     <t>Description</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Pololu 5V Step-Up/Step-Down Voltage Regulator</t>
   </si>
   <si>
-    <t>S7V7F5</t>
-  </si>
-  <si>
     <t>S7V8A</t>
   </si>
   <si>
@@ -176,16 +173,73 @@
     <t>647-RL81C331MDN1KX</t>
   </si>
   <si>
-    <t>DigiKey</t>
-  </si>
-  <si>
-    <t>BH3DL-ND</t>
-  </si>
-  <si>
-    <t>BH3DL</t>
-  </si>
-  <si>
-    <t>HOLDER BATT 3-D CELLS SOLDR LUGS</t>
+    <t>S7V8F5</t>
+  </si>
+  <si>
+    <t>D-cell batteries</t>
+  </si>
+  <si>
+    <t>BatteryMart/Junction</t>
+  </si>
+  <si>
+    <t>S18V20ALV</t>
+  </si>
+  <si>
+    <t>Pololu Adjustable 4-12V Step-Up/Step-Down Voltage Regulator</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>12BH146-GR</t>
+  </si>
+  <si>
+    <t>12BH111A-GR</t>
+  </si>
+  <si>
+    <t>Cylindrical Battery Contacts, Clips, Holders &amp; Springs 1"D" CELLS</t>
+  </si>
+  <si>
+    <t>E989N</t>
+  </si>
+  <si>
+    <t>Carlon box 8x8x4</t>
+  </si>
+  <si>
+    <t>Home Depot</t>
+  </si>
+  <si>
+    <t>MB7389</t>
+  </si>
+  <si>
+    <t>HRXL-MaxSonar®-WRMT™</t>
+  </si>
+  <si>
+    <t>MaxBotix</t>
+  </si>
+  <si>
+    <t>DIP Sockets Solder Tail - 28-Pin 0.3"</t>
+  </si>
+  <si>
+    <t>PRT-07942</t>
+  </si>
+  <si>
+    <t>PRT-00643</t>
+  </si>
+  <si>
+    <t>PRT-00132</t>
+  </si>
+  <si>
+    <t>RJ11 6-Pin Connector</t>
+  </si>
+  <si>
+    <t>2 more</t>
+  </si>
+  <si>
+    <t>12BH143A-GR</t>
+  </si>
+  <si>
+    <t>Cylindrical Battery Contacts, Clips, Holders &amp; Springs 4 D W/6" WIRE LDS</t>
   </si>
 </sst>
 </file>
@@ -257,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -274,6 +328,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -589,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K31"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +694,7 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+      <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="8">
@@ -659,7 +716,7 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+      <c r="B7" s="7">
         <v>1</v>
       </c>
       <c r="C7" s="8">
@@ -681,37 +738,41 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>151116</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.15</v>
-      </c>
+      <c r="B8" s="7">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
-        <v>1946367</v>
+      <c r="D9" t="s">
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="G9" s="5">
-        <v>0.12</v>
+        <v>21.98</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
@@ -719,10 +780,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>330740</v>
+        <v>151116</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
@@ -733,365 +794,502 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1946367</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
       <c r="G11" s="5">
-        <v>3.37</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>330740</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
       <c r="G12" s="5">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="G13" s="5">
-        <v>0.94</v>
+        <v>109.95</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="5">
-        <v>0.11</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
+        <v>56</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="5">
-        <v>1.65</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="5">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
       <c r="B17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
         <v>46</v>
       </c>
-      <c r="D17" t="s">
-        <v>45</v>
-      </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="5">
         <v>1.19</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
         <v>854</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E22" t="s">
         <v>15</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2118</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="5">
-        <v>5.95</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2122</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="5">
-        <v>5.95</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2119</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="5">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3">
-        <v>965</v>
-      </c>
-      <c r="E22" t="s">
-        <v>29</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="5">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="B23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>1014</v>
+        <v>2118</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="5">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" s="3">
-        <v>965</v>
+        <v>2122</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
       </c>
       <c r="G24" s="5">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="3">
-        <v>2089</v>
+        <v>2123</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
       </c>
       <c r="G25" s="5">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="B26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26" s="3">
-        <v>568</v>
+        <v>2572</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="5">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>1955</v>
+        <v>965</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="5">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>1960</v>
+        <v>1014</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
       </c>
       <c r="G28" s="5">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>965</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2089</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3">
+        <v>568</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1955</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="5">
         <v>0.99</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3">
-        <v>643</v>
-      </c>
-      <c r="E29" t="s">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1960</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" t="s">
         <v>26</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F36" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G36" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
+    <row r="37" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="6">
-        <f>SUM(G6:G29)</f>
-        <v>74.919999999999987</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G31" s="5"/>
+      <c r="G37" s="6">
+        <f>SUM(G6:G36)</f>
+        <v>225.92999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="5"/>
     </row>
   </sheetData>
   <sortState ref="B6:G48">
